--- a/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251029_201755.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251029_201755.xlsx
@@ -3759,7 +3759,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
